--- a/src/download/rts27_2018/Q3/Table_1.xlsx
+++ b/src/download/rts27_2018/Q3/Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekswift/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadijatartari/Dropbox (Deriv)/RMG_incorporation/Deriv Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2018/Q3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FA134B-DE63-EC48-B09C-9B2494C07E93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97955378-FE01-3B43-8B75-820EA99C3C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="1120" windowWidth="29600" windowHeight="17080" xr2:uid="{97DE7066-FD56-4645-A677-B3D966CA198B}"/>
+    <workbookView xWindow="-31740" yWindow="-1320" windowWidth="29520" windowHeight="20120" xr2:uid="{97DE7066-FD56-4645-A677-B3D966CA198B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="17">
   <si>
+    <t>Reporting Quarter</t>
+  </si>
+  <si>
+    <t>Date of the trading day</t>
+  </si>
+  <si>
+    <t>Outage Description</t>
+  </si>
+  <si>
+    <t>Outage No of occurances</t>
+  </si>
+  <si>
+    <t>Outage Avg Duration</t>
+  </si>
+  <si>
+    <t>Number of Failed transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value of Failed Transactions as % of total value of transactions executed on the day </t>
+  </si>
+  <si>
     <t>2018 Q3</t>
   </si>
   <si>
@@ -50,37 +71,16 @@
     <t>TYPE OF EXECUTION</t>
   </si>
   <si>
-    <t>Binary Investments (Europe) Ltd</t>
-  </si>
-  <si>
     <t>Malta</t>
-  </si>
-  <si>
-    <t>The Market Segment for Binary Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
   <si>
     <t>Legal Entity Identifier: 529900GJO69GVJ6GK177</t>
   </si>
   <si>
-    <t>REPORTING QUARTER</t>
+    <t>Deriv Investments (Europe) Ltd</t>
   </si>
   <si>
-    <t>DATE OF THE TRADING DAY</t>
-  </si>
-  <si>
-    <t>OUTAGE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>OUTAGE NO OF OCCURANCES</t>
-  </si>
-  <si>
-    <t>OUTAGE AVE DURATION</t>
-  </si>
-  <si>
-    <t>NO OF FAILED TRANSACTIONS</t>
-  </si>
-  <si>
-    <t>VALUE OF FAILED TRANSACTIONS AS % OF VALUE OF TRANSACTIONS EXECUTED ON THE DAY</t>
+    <t>The Market Segment for Deriv Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -139,12 +145,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +463,7 @@
   <dimension ref="A2:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,2205 +471,2201 @@
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>43282</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>43283</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>43284</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>43285</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>43286</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>43287</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>43288</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>43289</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>43290</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>43291</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>43292</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>43293</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
         <v>43294</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <v>43295</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>43296</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>43297</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>43298</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>43299</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <v>43300</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
         <v>43301</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <v>43302</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
         <v>43303</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
         <v>43304</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
         <v>43305</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
         <v>43306</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <v>43307</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
         <v>43308</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>43309</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
         <v>43310</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
         <v>43311</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <v>43312</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>43313</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <v>43314</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
         <v>43315</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>43316</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1">
         <v>43317</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
         <v>43318</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
         <v>43319</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
         <v>43320</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <v>43321</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
         <v>43322</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <v>43323</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
         <v>43324</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1">
         <v>43325</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
         <v>43326</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1">
         <v>43327</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
         <v>43328</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1">
         <v>43329</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
         <v>43330</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
         <v>43331</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1">
         <v>43332</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1">
         <v>43333</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1">
         <v>43334</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1">
         <v>43335</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1">
         <v>43336</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>43337</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
         <v>43338</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1">
         <v>43339</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1">
         <v>43340</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
         <v>43341</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
         <v>43342</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
         <v>43343</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1">
         <v>43344</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1">
         <v>43345</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1">
         <v>43346</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1">
         <v>43347</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1">
         <v>43348</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
         <v>43349</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1">
         <v>43350</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
         <v>43351</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
         <v>43352</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
         <v>43353</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1">
         <v>43354</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
         <v>43355</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
         <v>43356</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
         <v>43357</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <v>43358</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
         <v>43359</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
         <v>43360</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1">
         <v>43361</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1">
         <v>43362</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1">
         <v>43363</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1">
         <v>43364</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>43365</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1">
         <v>43366</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
         <v>43367</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1">
         <v>43368</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1">
         <v>43369</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <v>43370</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1">
         <v>43371</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <v>43372</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1">
         <v>43373</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
